--- a/water-fall/10_要件定義/30_タスク管理システム_行動シナリオ_v1.0.xlsx
+++ b/water-fall/10_要件定義/30_タスク管理システム_行動シナリオ_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\10_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223D7135-B36B-4CCF-9091-6320E7CA7B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE13857D-21E4-4132-9E73-2C20A8625887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="762" activeTab="3" xr2:uid="{C0876CA1-9781-4628-9B09-049B7564BFC5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="762" activeTab="1" xr2:uid="{C0876CA1-9781-4628-9B09-049B7564BFC5}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Ver.</t>
     <phoneticPr fontId="1"/>
@@ -104,10 +104,6 @@
     <rPh sb="6" eb="8">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -277,6 +273,18 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>シナリオID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワークセットID</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -333,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,7 +350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,9 +446,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -444,13 +455,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3430,14 +3447,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -3454,7 +3471,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7724775" y="742950"/>
+          <a:off x="7172325" y="742950"/>
           <a:ext cx="3752850" cy="1285875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3995,15 +4012,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5F033D-E5DE-45E1-99AA-18B624C1461B}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.77734375" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="21.21875" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
@@ -4015,95 +4031,110 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
+      <c r="G3" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="str">
-        <f>C4&amp;":"&amp;D4</f>
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="str">
+        <f>D4&amp;":"&amp;C4</f>
         <v>B010:アカウント登録</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="str">
-        <f>C5&amp;":"&amp;D5</f>
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="str">
+        <f>D5&amp;":"&amp;C5</f>
         <v>B020:タスク作成・変更・消込</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4116,7 +4147,7 @@
   <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4126,19 +4157,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="8" t="str">
         <f>'1_行動シナリオ一覧'!$G$4</f>
         <v>B010:アカウント登録</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
-        <v>22</v>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
@@ -4180,8 +4211,8 @@
       <c r="AO4" s="12"/>
     </row>
     <row r="5" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
-        <v>25</v>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -4223,7 +4254,7 @@
       <c r="AO5" s="12"/>
     </row>
     <row r="6" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -4274,9 +4305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACEF408-442F-4273-BFA1-9D22CCFE8B5E}">
   <dimension ref="A1:BN6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL4" sqref="AL4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4285,19 +4314,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="8" t="str">
         <f>'1_行動シナリオ一覧'!$G$5</f>
         <v>B020:タスク作成・変更・消込</v>
       </c>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:66" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
-        <v>22</v>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
@@ -4364,8 +4393,8 @@
       <c r="BN4" s="12"/>
     </row>
     <row r="5" spans="1:66" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
-        <v>25</v>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -4432,7 +4461,7 @@
       <c r="BN5" s="12"/>
     </row>
     <row r="6" spans="1:66" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -4508,9 +4537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB56C0B6-27F5-44A1-8E57-03709BE86438}">
   <dimension ref="A1:AO6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AH16" sqref="AH16"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4519,18 +4546,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>21</v>
+      <c r="A1" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
-        <v>22</v>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
@@ -4572,8 +4599,8 @@
       <c r="AO4" s="12"/>
     </row>
     <row r="5" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
-        <v>23</v>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -4615,7 +4642,7 @@
       <c r="AO5" s="12"/>
     </row>
     <row r="6" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -4667,101 +4694,120 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.77734375" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="21.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/water-fall/10_要件定義/30_タスク管理システム_行動シナリオ_v1.0.xlsx
+++ b/water-fall/10_要件定義/30_タスク管理システム_行動シナリオ_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\10_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE13857D-21E4-4132-9E73-2C20A8625887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA70C9B-C88B-49DF-95A3-163C86050E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="762" activeTab="1" xr2:uid="{C0876CA1-9781-4628-9B09-049B7564BFC5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="762" activeTab="5" xr2:uid="{C0876CA1-9781-4628-9B09-049B7564BFC5}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Ver.</t>
     <phoneticPr fontId="1"/>
@@ -103,13 +103,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シナリオ名称</t>
-    <rPh sb="4" eb="6">
-      <t>メイショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -179,20 +172,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ID:シナリオ名称</t>
-    <rPh sb="7" eb="9">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{ID:シナリオ名称}</t>
-    <rPh sb="8" eb="10">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -233,12 +212,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>W030</t>
-  </si>
-  <si>
-    <t>W040</t>
-  </si>
-  <si>
     <t>ワークセット名称</t>
     <rPh sb="6" eb="8">
       <t>メイショウ</t>
@@ -253,36 +226,61 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスク作成</t>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスク変更</t>
-    <rPh sb="3" eb="5">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスク削除</t>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シナリオID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ワークセットID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{ID:行動シナリオ名称}</t>
+    <rPh sb="4" eb="6">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動シナリオ名称</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動シナリオID</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID:行動シナリオ名称</t>
+    <rPh sb="3" eb="5">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク作成・変更・削除</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1985,7 +1983,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11500818" y="2132356"/>
+          <a:off x="11502179" y="2103782"/>
           <a:ext cx="490567" cy="234249"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2029,7 +2027,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>W030</a:t>
+            <a:t>W020</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
             <a:solidFill>
@@ -2062,7 +2060,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15253668" y="2141881"/>
+          <a:off x="15255029" y="2113307"/>
           <a:ext cx="490567" cy="234249"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2106,7 +2104,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>W040</a:t>
+            <a:t>W020</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
             <a:solidFill>
@@ -3455,8 +3453,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3471,8 +3469,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7172325" y="742950"/>
-          <a:ext cx="3752850" cy="1285875"/>
+          <a:off x="7581900" y="714375"/>
+          <a:ext cx="3752850" cy="1395413"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3659,7 +3657,7 @@
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>図を作成する。ただし、複数のワークセットをまとめた方が良い場合は、</a:t>
+            <a:t>図を作成する。ただし、複数のワークセットをまとめた方が（</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
@@ -3675,7 +3673,7 @@
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>図でまとめる。</a:t>
+            <a:t>図を）設計しやすい場合は、ワークセットをまとめて定義しておく。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -3919,14 +3917,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="4" max="5" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3943,7 +3941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3960,42 +3958,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4012,56 +4010,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5F033D-E5DE-45E1-99AA-18B624C1461B}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.94140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="21.21875" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B3" s="13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" s="13" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="7" t="str">
@@ -4069,18 +4067,18 @@
         <v>B010:アカウント登録</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7" t="str">
@@ -4088,7 +4086,7 @@
         <v>B020:タスク作成・変更・消込</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -4096,7 +4094,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -4104,7 +4102,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -4112,7 +4110,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -4120,7 +4118,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -4128,7 +4126,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4150,26 +4148,26 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="2.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="str">
         <f>'1_行動シナリオ一覧'!$G$4</f>
         <v>B010:アカウント登録</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
@@ -4210,9 +4208,9 @@
       <c r="AN4" s="11"/>
       <c r="AO4" s="12"/>
     </row>
-    <row r="5" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -4253,7 +4251,7 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="12"/>
     </row>
-    <row r="6" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
@@ -4305,28 +4303,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACEF408-442F-4273-BFA1-9D22CCFE8B5E}">
   <dimension ref="A1:BN6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="2.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="str">
         <f>'1_行動シナリオ一覧'!$G$5</f>
         <v>B020:タスク作成・変更・消込</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:66" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" ht="222.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
@@ -4392,9 +4390,9 @@
       <c r="BM4" s="11"/>
       <c r="BN4" s="12"/>
     </row>
-    <row r="5" spans="1:66" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -4460,7 +4458,7 @@
       <c r="BM5" s="11"/>
       <c r="BN5" s="12"/>
     </row>
-    <row r="6" spans="1:66" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
@@ -4537,27 +4535,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB56C0B6-27F5-44A1-8E57-03709BE86438}">
   <dimension ref="A1:AO6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="2.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
@@ -4598,9 +4598,9 @@
       <c r="AN4" s="11"/>
       <c r="AO4" s="12"/>
     </row>
-    <row r="5" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -4641,7 +4641,7 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="12"/>
     </row>
-    <row r="6" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
@@ -4693,11 +4693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1075E2D1-BE85-48A7-BCDB-F765453245C8}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
@@ -4707,102 +4705,90 @@
     <col min="6" max="6" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>25</v>
       </c>
+      <c r="D3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>28</v>
-      </c>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>

--- a/water-fall/10_要件定義/30_タスク管理システム_行動シナリオ_v1.0.xlsx
+++ b/water-fall/10_要件定義/30_タスク管理システム_行動シナリオ_v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\10_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA70C9B-C88B-49DF-95A3-163C86050E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295807A2-DD41-41FA-B475-C1A81F899702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="762" activeTab="5" xr2:uid="{C0876CA1-9781-4628-9B09-049B7564BFC5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="762" activeTab="5" xr2:uid="{C0876CA1-9781-4628-9B09-049B7564BFC5}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Ver.</t>
     <phoneticPr fontId="1"/>
@@ -283,6 +283,23 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>設計ファイル名称</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム名称→</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -339,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +372,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,6 +491,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -476,10 +505,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000CC"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF00B050"/>
       <color rgb="FFFFFF00"/>
-      <color rgb="FF0000CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3445,16 +3475,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>182823</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>169156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1401195</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>32287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3469,8 +3499,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7581900" y="714375"/>
-          <a:ext cx="3752850" cy="1395413"/>
+          <a:off x="795736" y="2604243"/>
+          <a:ext cx="3752850" cy="1453392"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3917,14 +3947,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="4" max="5" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3941,7 +3971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3958,42 +3988,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4012,23 +4042,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.94140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="21.21875" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>27</v>
       </c>
@@ -4048,7 +4078,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -4067,7 +4097,7 @@
         <v>B010:アカウント登録</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -4086,7 +4116,7 @@
         <v>B020:タスク作成・変更・消込</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -4094,7 +4124,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -4102,7 +4132,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -4110,7 +4140,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -4118,7 +4148,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -4126,7 +4156,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4148,24 +4178,24 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="str">
         <f>'1_行動シナリオ一覧'!$G$4</f>
         <v>B010:アカウント登録</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
@@ -4208,7 +4238,7 @@
       <c r="AN4" s="11"/>
       <c r="AO4" s="12"/>
     </row>
-    <row r="5" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
@@ -4251,7 +4281,7 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="12"/>
     </row>
-    <row r="6" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
@@ -4303,26 +4333,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACEF408-442F-4273-BFA1-9D22CCFE8B5E}">
   <dimension ref="A1:BN6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="str">
         <f>'1_行動シナリオ一覧'!$G$5</f>
         <v>B020:タスク作成・変更・消込</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:66" ht="222.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:66" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
@@ -4390,7 +4422,7 @@
       <c r="BM4" s="11"/>
       <c r="BN4" s="12"/>
     </row>
-    <row r="5" spans="1:66" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:66" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
@@ -4458,7 +4490,7 @@
       <c r="BM5" s="11"/>
       <c r="BN5" s="12"/>
     </row>
-    <row r="6" spans="1:66" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:66" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
@@ -4539,23 +4571,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
@@ -4598,7 +4630,7 @@
       <c r="AN4" s="11"/>
       <c r="AO4" s="12"/>
     </row>
-    <row r="5" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>19</v>
       </c>
@@ -4641,7 +4673,7 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="12"/>
     </row>
-    <row r="6" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
@@ -4691,11 +4723,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1075E2D1-BE85-48A7-BCDB-F765453245C8}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
@@ -4703,14 +4735,23 @@
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="7" max="7" width="55.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>27</v>
       </c>
@@ -4726,8 +4767,11 @@
       <c r="F3" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="G3" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -4739,8 +4783,12 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
+      <c r="G4" s="7" t="str">
+        <f>IF(C4&lt;&gt;"","20_"&amp;$G$2&amp;"_画面・機能_"&amp;D4&amp;"_"&amp;C4&amp;"_v1.0","-")</f>
+        <v>20_タスク管理システム_画面・機能_W010_ユーザー登録_v1.0</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -4752,48 +4800,76 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
+      <c r="G5" s="7" t="str">
+        <f t="shared" ref="G5:G11" si="0">IF(C5&lt;&gt;"","20_"&amp;$G$2&amp;"_画面・機能_"&amp;D5&amp;"_"&amp;C5&amp;"_v1.0","-")</f>
+        <v>20_タスク管理システム_画面・機能_W020_タスク作成・変更・削除_v1.0</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
+      <c r="G6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
+      <c r="G7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
+      <c r="G8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
+      <c r="G9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
+      <c r="G10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
+      <c r="G11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/water-fall/10_要件定義/30_タスク管理システム_行動シナリオ_v1.0.xlsx
+++ b/water-fall/10_要件定義/30_タスク管理システム_行動シナリオ_v1.0.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\10_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295807A2-DD41-41FA-B475-C1A81F899702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F78E6A-C7A6-47C6-BD1B-CDA34B1D04F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="762" activeTab="5" xr2:uid="{C0876CA1-9781-4628-9B09-049B7564BFC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" activeTab="5" xr2:uid="{C0876CA1-9781-4628-9B09-049B7564BFC5}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="2" r:id="rId1"/>
     <sheet name="1_行動シナリオ一覧" sheetId="1" r:id="rId2"/>
-    <sheet name="B010" sheetId="5" r:id="rId3"/>
-    <sheet name="B020" sheetId="6" r:id="rId4"/>
+    <sheet name="BP-010" sheetId="5" r:id="rId3"/>
+    <sheet name="BP-020" sheetId="6" r:id="rId4"/>
     <sheet name="__template__" sheetId="3" r:id="rId5"/>
     <sheet name="2_ワークセット一覧" sheetId="4" r:id="rId6"/>
   </sheets>
@@ -121,14 +121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B020</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント登録</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
@@ -201,14 +193,6 @@
     <rPh sb="6" eb="8">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W020</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -298,6 +282,22 @@
     <rPh sb="4" eb="6">
       <t>メイショウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BP-010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BP-020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WS-010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WS-020</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4040,7 +4040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5F033D-E5DE-45E1-99AA-18B624C1461B}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4060,13 +4062,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>10</v>
@@ -4075,7 +4077,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4083,18 +4085,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="7" t="str">
         <f>D4&amp;":"&amp;C4</f>
-        <v>B010:アカウント登録</v>
+        <v>BP-010:アカウント登録</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4102,18 +4104,18 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7" t="str">
         <f>D5&amp;":"&amp;C5</f>
-        <v>B020:タスク作成・変更・消込</v>
+        <v>BP-020:タスク作成・変更・消込</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4187,17 +4189,17 @@
     <row r="1" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="str">
         <f>'1_行動シナリオ一覧'!$G$4</f>
-        <v>B010:アカウント登録</v>
+        <v>BP-010:アカウント登録</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
@@ -4240,7 +4242,7 @@
     </row>
     <row r="5" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -4333,9 +4335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACEF408-442F-4273-BFA1-9D22CCFE8B5E}">
   <dimension ref="A1:BN6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4346,17 +4346,17 @@
     <row r="1" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="str">
         <f>'1_行動シナリオ一覧'!$G$5</f>
-        <v>B020:タスク作成・変更・消込</v>
+        <v>BP-020:タスク作成・変更・消込</v>
       </c>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:66" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="5" spans="1:66" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -4579,17 +4579,17 @@
   <sheetData>
     <row r="1" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="5" spans="1:41" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -4740,26 +4740,26 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F2" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>10</v>
@@ -4768,7 +4768,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4776,16 +4776,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7" t="str">
         <f>IF(C4&lt;&gt;"","20_"&amp;$G$2&amp;"_画面・機能_"&amp;D4&amp;"_"&amp;C4&amp;"_v1.0","-")</f>
-        <v>20_タスク管理システム_画面・機能_W010_ユーザー登録_v1.0</v>
+        <v>20_タスク管理システム_画面・機能_WS-010_ユーザー登録_v1.0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4793,16 +4793,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="7" t="str">
         <f t="shared" ref="G5:G11" si="0">IF(C5&lt;&gt;"","20_"&amp;$G$2&amp;"_画面・機能_"&amp;D5&amp;"_"&amp;C5&amp;"_v1.0","-")</f>
-        <v>20_タスク管理システム_画面・機能_W020_タスク作成・変更・削除_v1.0</v>
+        <v>20_タスク管理システム_画面・機能_WS-020_タスク作成・変更・削除_v1.0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
